--- a/5 сем матстат/Соц. опрос студентов (Ответы).xlsx
+++ b/5 сем матстат/Соц. опрос студентов (Ответы).xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\5 сем матстат\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\5 сем\repo\5_sem\5 сем матстат\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAF0AB5-0B35-489E-8BB2-4F7CCE358ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A9B208-38AB-46C6-9B79-3C96B918628C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="4" r:id="rId1"/>
-    <sheet name="Лист4" sheetId="5" r:id="rId2"/>
-    <sheet name="Ответы на форму (1)" sheetId="1" r:id="rId3"/>
+    <sheet name="Ответы на форму (1)" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист4" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="44" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="9" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -179,6 +180,8 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -197,18 +200,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -334,6 +456,118 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -368,6 +602,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A068-4A73-A80A-467661CD43E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -383,6 +622,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A068-4A73-A80A-467661CD43E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -398,6 +642,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A068-4A73-A80A-467661CD43E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -413,6 +662,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A068-4A73-A80A-467661CD43E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -428,6 +682,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A068-4A73-A80A-467661CD43E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -443,6 +702,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-A068-4A73-A80A-467661CD43E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -460,6 +724,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-A068-4A73-A80A-467661CD43E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -477,6 +746,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-A068-4A73-A80A-467661CD43E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -494,6 +768,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-A068-4A73-A80A-467661CD43E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -786,8 +1065,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -848,6 +1126,42 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -885,6 +1199,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-47F9-4B4D-AD19-326DB6824E76}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -904,6 +1223,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-47F9-4B4D-AD19-326DB6824E76}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1150,15 +1474,15 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="4"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Соц. опрос студентов (Ответы).xlsx]Лист4!Сводная таблица5</c:name>
-    <c:fmtId val="20"/>
+    <c:fmtId val="35"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -1196,13 +1520,11 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln w="19050">
+          <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1254,8 +1576,9 @@
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1270,142 +1593,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="46000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="62000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="93000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="92000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="61000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="45000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Лист4!$A$29:$A$37</c:f>
@@ -1468,9 +1667,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8A3D-42F1-99CF-267B203A4CCD}"/>
+              <c16:uniqueId val="{00000000-1696-453D-93A7-80A30E53D9A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1481,10 +1681,118 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:smooth val="0"/>
+        <c:axId val="791693824"/>
+        <c:axId val="646194496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="791693824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646194496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="646194496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791693824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1525,7 +1833,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1665,8 +1973,42 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -2798,7 +3140,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2855,7 +3197,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2907,11 +3249,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -2924,18 +3264,16 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2961,6 +3299,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2973,7 +3314,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3016,23 +3357,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3137,8 +3477,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3270,20 +3610,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3398,22 +3737,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:colOff>624840</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
+        <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D140084-80E6-5D77-9949-655271A7C29B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FC8E19-7A71-0006-403C-B749AEDB0B8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3534,6 +3873,43 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Максим" refreshedDate="45182.758433564813" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="155" xr:uid="{0A0DF0B1-3332-46A5-8214-7CDA5E4F6E33}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:C1048576" sheet="Ответы на форму (1)"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Размер обуви (российский размер, 38, 43 и т.п.)" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="36" maxValue="50" count="18">
+        <n v="43"/>
+        <n v="36"/>
+        <n v="42"/>
+        <n v="45"/>
+        <n v="39"/>
+        <n v="43.5"/>
+        <n v="37"/>
+        <n v="40"/>
+        <n v="38"/>
+        <n v="44"/>
+        <n v="41"/>
+        <n v="47"/>
+        <n v="50"/>
+        <m/>
+        <n v="46"/>
+        <s v="42/43"/>
+        <n v="48"/>
+        <s v="44.5"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="154">
   <r>
@@ -4617,8 +4993,478 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="155">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1CD69D25-8DBA-4E23-B1C2-170230FEC0D4}" name="Сводная таблица3" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1CD69D25-8DBA-4E23-B1C2-170230FEC0D4}" name="Сводная таблица3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -4686,12 +5532,108 @@
   <dataFields count="1">
     <dataField name="Количество по полю Рост (целое число в см)" fld="1" subtotal="count" baseField="1" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="9">
     <chartFormat chart="5" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="15"/>
           </reference>
         </references>
       </pivotArea>
@@ -4710,7 +5652,47 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{002D441E-F98F-44DA-9168-3DCD5785AFF8}" name="Сводная таблица4" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40A0E252-0D4E-47AB-8326-F733A897D8DD}" name="Сводная таблица1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A46:C63" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="1">
+    <pivotField showAll="0">
+      <items count="19">
+        <item x="1"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{002D441E-F98F-44DA-9168-3DCD5785AFF8}" name="Сводная таблица4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -4766,12 +5748,36 @@
   <dataFields count="1">
     <dataField name="Количество по полю Пол" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="3">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -4789,8 +5795,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{311AAC00-525A-41AA-85DC-2597E0115F49}" name="Сводная таблица5" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{311AAC00-525A-41AA-85DC-2597E0115F49}" name="Сводная таблица5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="36">
   <location ref="A28:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -4868,7 +5874,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="20" format="0" series="1">
+    <chartFormat chart="35" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5090,9 +6096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D251D481-C777-4DB9-89ED-624F23548E9B}">
   <dimension ref="A3:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B48"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5114,13 +6118,12 @@
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>5</v>
       </c>
     </row>
@@ -5128,7 +6131,7 @@
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>25</v>
       </c>
     </row>
@@ -5136,7 +6139,7 @@
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>57</v>
       </c>
     </row>
@@ -5144,7 +6147,7 @@
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>53</v>
       </c>
     </row>
@@ -5152,7 +6155,7 @@
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>6</v>
       </c>
     </row>
@@ -5160,7 +6163,7 @@
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>4</v>
       </c>
     </row>
@@ -5168,7 +6171,7 @@
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
@@ -5176,7 +6179,7 @@
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>151</v>
       </c>
     </row>
@@ -5187,11 +6190,2648 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E155"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="21.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>186</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>154</v>
+      </c>
+      <c r="C3" s="1">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>175</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>178</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>175</v>
+      </c>
+      <c r="C6" s="1">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>169</v>
+      </c>
+      <c r="C7" s="1">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>176</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>175</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>177</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>171</v>
+      </c>
+      <c r="C11" s="1">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>173</v>
+      </c>
+      <c r="C12" s="1">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>180</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>160</v>
+      </c>
+      <c r="C14" s="1">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>180</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>176</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>180</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>176</v>
+      </c>
+      <c r="C18" s="1">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>178</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>165</v>
+      </c>
+      <c r="C20" s="1">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>191</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>173</v>
+      </c>
+      <c r="C22" s="1">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>169</v>
+      </c>
+      <c r="C23" s="1">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>181</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>172</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>180</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>175</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>180</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>178</v>
+      </c>
+      <c r="C30" s="1">
+        <v>41</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>177</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>181</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>172</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>187</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>177</v>
+      </c>
+      <c r="C35" s="1">
+        <v>41</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1">
+        <v>167</v>
+      </c>
+      <c r="C36" s="1">
+        <v>37</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>185</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>178</v>
+      </c>
+      <c r="C38" s="1">
+        <v>42</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>170</v>
+      </c>
+      <c r="C39" s="1">
+        <v>39</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1">
+        <v>168</v>
+      </c>
+      <c r="C40" s="1">
+        <v>38</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
+        <v>182</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>191</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>186</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>185</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1">
+        <v>185</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1">
+        <v>162</v>
+      </c>
+      <c r="C46" s="1">
+        <v>37</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1">
+        <v>171</v>
+      </c>
+      <c r="C47" s="1">
+        <v>40</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1">
+        <v>170</v>
+      </c>
+      <c r="C48" s="1">
+        <v>39</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1">
+        <v>179</v>
+      </c>
+      <c r="C49" s="1">
+        <v>41</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1">
+        <v>170</v>
+      </c>
+      <c r="C50" s="1">
+        <v>37</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1">
+        <v>165</v>
+      </c>
+      <c r="C51" s="1">
+        <v>38</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
+        <v>182</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1">
+        <v>172</v>
+      </c>
+      <c r="C53" s="1">
+        <v>42</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1">
+        <v>164</v>
+      </c>
+      <c r="C54" s="1">
+        <v>37</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1">
+        <v>180</v>
+      </c>
+      <c r="C55" s="1">
+        <v>42</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1">
+        <v>178</v>
+      </c>
+      <c r="C56" s="1">
+        <v>41</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="1">
+        <v>170</v>
+      </c>
+      <c r="C57" s="1">
+        <v>38</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1">
+        <v>171</v>
+      </c>
+      <c r="C58" s="1">
+        <v>42</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1">
+        <v>182</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1">
+        <v>163</v>
+      </c>
+      <c r="C60" s="1">
+        <v>38</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1">
+        <v>180</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="1">
+        <v>188</v>
+      </c>
+      <c r="C62" s="1">
+        <v>44</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="1">
+        <v>180</v>
+      </c>
+      <c r="C63" s="1">
+        <v>44</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="1">
+        <v>181</v>
+      </c>
+      <c r="C64" s="1">
+        <v>42</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1">
+        <v>184</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
+        <v>154</v>
+      </c>
+      <c r="C66" s="1">
+        <v>36</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1">
+        <v>44</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1">
+        <v>194</v>
+      </c>
+      <c r="C68" s="1">
+        <v>47</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1">
+        <v>189</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>165</v>
+      </c>
+      <c r="C70" s="1">
+        <v>38</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="1">
+        <v>185</v>
+      </c>
+      <c r="C71" s="1">
+        <v>42</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="1">
+        <v>184</v>
+      </c>
+      <c r="C72" s="1">
+        <v>44</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1">
+        <v>150</v>
+      </c>
+      <c r="C73" s="1">
+        <v>50</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="1">
+        <v>183</v>
+      </c>
+      <c r="C74" s="1">
+        <v>41</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>178</v>
+      </c>
+      <c r="C75" s="1">
+        <v>38</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="1">
+        <v>180</v>
+      </c>
+      <c r="C76" s="1">
+        <v>43</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="1">
+        <v>173</v>
+      </c>
+      <c r="C77" s="1">
+        <v>40</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="1">
+        <v>186</v>
+      </c>
+      <c r="C78" s="1">
+        <v>44</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="1">
+        <v>175</v>
+      </c>
+      <c r="C79" s="1">
+        <v>43</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>168</v>
+      </c>
+      <c r="C80" s="1">
+        <v>37</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>170</v>
+      </c>
+      <c r="C81" s="1">
+        <v>38</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>168</v>
+      </c>
+      <c r="C82" s="1">
+        <v>39</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>164</v>
+      </c>
+      <c r="C83" s="1">
+        <v>39</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>179</v>
+      </c>
+      <c r="C84" s="1">
+        <v>43</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>155</v>
+      </c>
+      <c r="C85" s="1">
+        <v>37</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>165</v>
+      </c>
+      <c r="C86" s="1">
+        <v>39</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>184</v>
+      </c>
+      <c r="C88" s="1">
+        <v>43</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>170</v>
+      </c>
+      <c r="C89" s="1">
+        <v>39</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>170</v>
+      </c>
+      <c r="C90" s="1">
+        <v>39</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>172</v>
+      </c>
+      <c r="C91" s="1">
+        <v>39</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>190</v>
+      </c>
+      <c r="C92" s="1">
+        <v>46</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>180</v>
+      </c>
+      <c r="C93" s="1">
+        <v>45</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>178</v>
+      </c>
+      <c r="C94" s="1">
+        <v>43</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>186</v>
+      </c>
+      <c r="C95" s="1">
+        <v>45</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>166</v>
+      </c>
+      <c r="C96" s="1">
+        <v>37</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>179</v>
+      </c>
+      <c r="C97" s="1">
+        <v>45</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>175</v>
+      </c>
+      <c r="C98" s="1">
+        <v>41</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>183</v>
+      </c>
+      <c r="C99" s="1">
+        <v>44</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>182</v>
+      </c>
+      <c r="C100" s="1">
+        <v>42</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>180</v>
+      </c>
+      <c r="C101" s="1">
+        <v>43</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>180</v>
+      </c>
+      <c r="C102" s="1">
+        <v>42</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>176</v>
+      </c>
+      <c r="C103" s="1">
+        <v>40</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>200</v>
+      </c>
+      <c r="C104" s="1">
+        <v>45</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>173</v>
+      </c>
+      <c r="C105" s="1">
+        <v>42</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>165</v>
+      </c>
+      <c r="C106" s="1">
+        <v>37</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>187</v>
+      </c>
+      <c r="C107" s="1">
+        <v>45</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="1">
+        <v>180</v>
+      </c>
+      <c r="C108" s="1">
+        <v>44</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="1">
+        <v>180</v>
+      </c>
+      <c r="C109" s="1">
+        <v>41</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>158</v>
+      </c>
+      <c r="C110" s="1">
+        <v>37</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="1">
+        <v>174</v>
+      </c>
+      <c r="C111" s="1">
+        <v>41</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="1">
+        <v>170</v>
+      </c>
+      <c r="C112" s="1">
+        <v>41</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="1">
+        <v>184</v>
+      </c>
+      <c r="C113" s="1">
+        <v>44</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="1">
+        <v>183</v>
+      </c>
+      <c r="C114" s="1">
+        <v>45</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="1">
+        <v>176</v>
+      </c>
+      <c r="C115" s="1">
+        <v>41</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>160</v>
+      </c>
+      <c r="C116" s="1">
+        <v>36</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="1">
+        <v>180</v>
+      </c>
+      <c r="C117" s="1">
+        <v>42</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1">
+        <v>180</v>
+      </c>
+      <c r="C118" s="1">
+        <v>39</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="1">
+        <v>187</v>
+      </c>
+      <c r="C119" s="1">
+        <v>41</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="1">
+        <v>182</v>
+      </c>
+      <c r="C120" s="1">
+        <v>42</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="1">
+        <v>189</v>
+      </c>
+      <c r="C121" s="1">
+        <v>44</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1">
+        <v>162</v>
+      </c>
+      <c r="C122" s="1">
+        <v>37</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="1">
+        <v>183</v>
+      </c>
+      <c r="C123" s="1">
+        <v>42</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="1">
+        <v>172</v>
+      </c>
+      <c r="C124" s="1">
+        <v>41</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="1">
+        <v>181</v>
+      </c>
+      <c r="C125" s="1">
+        <v>43</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>163</v>
+      </c>
+      <c r="C126" s="1">
+        <v>39</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="1">
+        <v>193</v>
+      </c>
+      <c r="C127" s="1">
+        <v>43</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="1">
+        <v>192</v>
+      </c>
+      <c r="C128" s="1">
+        <v>45</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="1">
+        <v>186</v>
+      </c>
+      <c r="C129" s="1">
+        <v>43</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="1">
+        <v>170</v>
+      </c>
+      <c r="C130" s="1">
+        <v>42</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="1">
+        <v>167</v>
+      </c>
+      <c r="C131" s="1">
+        <v>37</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="1">
+        <v>174</v>
+      </c>
+      <c r="C132" s="1">
+        <v>40</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="1">
+        <v>173</v>
+      </c>
+      <c r="C133" s="1">
+        <v>41</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="1">
+        <v>184</v>
+      </c>
+      <c r="C134" s="1">
+        <v>44</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="1">
+        <v>170</v>
+      </c>
+      <c r="C135" s="1">
+        <v>39</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="1">
+        <v>169</v>
+      </c>
+      <c r="C136" s="1">
+        <v>41</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="1">
+        <v>174</v>
+      </c>
+      <c r="C137" s="1">
+        <v>43</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="1">
+        <v>187</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="1">
+        <v>171</v>
+      </c>
+      <c r="C139" s="1">
+        <v>40</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="1">
+        <v>202</v>
+      </c>
+      <c r="C140" s="1">
+        <v>47</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="1">
+        <v>178</v>
+      </c>
+      <c r="C141" s="1">
+        <v>42</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="1">
+        <v>205</v>
+      </c>
+      <c r="C142" s="1">
+        <v>48</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="1">
+        <v>161</v>
+      </c>
+      <c r="C143" s="1">
+        <v>37</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="1">
+        <v>176</v>
+      </c>
+      <c r="C144" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="1">
+        <v>170</v>
+      </c>
+      <c r="C145" s="1">
+        <v>39</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="1">
+        <v>178</v>
+      </c>
+      <c r="C146" s="1">
+        <v>42</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="1">
+        <v>185</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="1">
+        <v>169</v>
+      </c>
+      <c r="C148" s="1">
+        <v>40</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="1">
+        <v>169</v>
+      </c>
+      <c r="C149" s="1">
+        <v>41</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="1">
+        <v>186</v>
+      </c>
+      <c r="C150" s="1">
+        <v>47</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="1">
+        <v>171</v>
+      </c>
+      <c r="C151" s="1">
+        <v>41</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="1">
+        <v>200</v>
+      </c>
+      <c r="C152" s="1">
+        <v>47</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="1">
+        <v>177</v>
+      </c>
+      <c r="C153" s="1">
+        <v>42</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="1">
+        <v>185</v>
+      </c>
+      <c r="C154" s="1">
+        <v>43</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="1">
+        <v>300</v>
+      </c>
+      <c r="C155" s="1">
+        <v>38</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CF95C5-C4A0-41AB-89FF-47C68B5F93DD}">
-  <dimension ref="A3:B37"/>
+  <dimension ref="A3:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5213,7 +8853,7 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>47</v>
       </c>
     </row>
@@ -5221,7 +8861,7 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>107</v>
       </c>
     </row>
@@ -5229,7 +8869,7 @@
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>154</v>
       </c>
     </row>
@@ -5245,13 +8885,12 @@
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>5</v>
       </c>
     </row>
@@ -5259,7 +8898,7 @@
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>25</v>
       </c>
     </row>
@@ -5267,2689 +8906,142 @@
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>151</v>
       </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E155"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="21.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>186</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>154</v>
-      </c>
-      <c r="C3" s="1">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>175</v>
-      </c>
-      <c r="C4" s="1">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>178</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>175</v>
-      </c>
-      <c r="C6" s="1">
-        <v>39</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>169</v>
-      </c>
-      <c r="C7" s="1">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>176</v>
-      </c>
-      <c r="C8" s="1">
-        <v>43.5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>175</v>
-      </c>
-      <c r="C9" s="1">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>177</v>
-      </c>
-      <c r="C10" s="1">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>171</v>
-      </c>
-      <c r="C11" s="1">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>173</v>
-      </c>
-      <c r="C12" s="1">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1">
-        <v>180</v>
-      </c>
-      <c r="C13" s="1">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1">
-        <v>160</v>
-      </c>
-      <c r="C14" s="1">
-        <v>36</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>180</v>
-      </c>
-      <c r="C15" s="1">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1">
-        <v>176</v>
-      </c>
-      <c r="C16" s="1">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>180</v>
-      </c>
-      <c r="C17" s="1">
-        <v>43</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1">
-        <v>176</v>
-      </c>
-      <c r="C18" s="1">
-        <v>39</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>178</v>
-      </c>
-      <c r="C19" s="1">
-        <v>43</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="1">
-        <v>165</v>
-      </c>
-      <c r="C20" s="1">
-        <v>38</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>191</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1">
-        <v>173</v>
-      </c>
-      <c r="C22" s="1">
-        <v>36</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1">
-        <v>169</v>
-      </c>
-      <c r="C23" s="1">
-        <v>39</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1">
-        <v>181</v>
-      </c>
-      <c r="C24" s="1">
-        <v>44</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1">
-        <v>172</v>
-      </c>
-      <c r="C25" s="1">
-        <v>43</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1">
-        <v>42</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1">
-        <v>180</v>
-      </c>
-      <c r="C27" s="1">
-        <v>43</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1">
-        <v>175</v>
-      </c>
-      <c r="C28" s="1">
-        <v>43</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1">
-        <v>180</v>
-      </c>
-      <c r="C29" s="1">
-        <v>43</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1">
-        <v>178</v>
-      </c>
-      <c r="C30" s="1">
-        <v>41</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1">
-        <v>177</v>
-      </c>
-      <c r="C31" s="1">
-        <v>42</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1">
-        <v>181</v>
-      </c>
-      <c r="C32" s="1">
-        <v>42</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1">
-        <v>172</v>
-      </c>
-      <c r="C33" s="1">
-        <v>43</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1">
-        <v>187</v>
-      </c>
-      <c r="C34" s="1">
-        <v>44</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1">
-        <v>177</v>
-      </c>
-      <c r="C35" s="1">
-        <v>41</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="1">
-        <v>167</v>
-      </c>
-      <c r="C36" s="1">
-        <v>37</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1">
-        <v>185</v>
-      </c>
-      <c r="C37" s="1">
-        <v>44</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1">
-        <v>178</v>
-      </c>
-      <c r="C38" s="1">
-        <v>42</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1">
-        <v>170</v>
-      </c>
-      <c r="C39" s="1">
-        <v>39</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="1">
-        <v>168</v>
-      </c>
-      <c r="C40" s="1">
-        <v>38</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1">
-        <v>182</v>
-      </c>
-      <c r="C41" s="1">
-        <v>44</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1">
-        <v>191</v>
-      </c>
-      <c r="C42" s="1">
-        <v>45</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1">
-        <v>186</v>
-      </c>
-      <c r="C43" s="1">
-        <v>43</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="1">
-        <v>185</v>
-      </c>
-      <c r="C44" s="1">
-        <v>44</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="1">
-        <v>185</v>
-      </c>
-      <c r="C45" s="1">
-        <v>43</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="1">
-        <v>162</v>
-      </c>
-      <c r="C46" s="1">
-        <v>37</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="1">
-        <v>171</v>
-      </c>
-      <c r="C47" s="1">
-        <v>40</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="1">
-        <v>170</v>
-      </c>
-      <c r="C48" s="1">
-        <v>39</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="1">
-        <v>179</v>
-      </c>
-      <c r="C49" s="1">
-        <v>41</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="1">
-        <v>170</v>
-      </c>
-      <c r="C50" s="1">
-        <v>37</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="1">
-        <v>165</v>
-      </c>
-      <c r="C51" s="1">
-        <v>38</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="1">
-        <v>182</v>
-      </c>
-      <c r="C52" s="1">
-        <v>43</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="1">
-        <v>172</v>
-      </c>
-      <c r="C53" s="1">
-        <v>42</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="1">
-        <v>164</v>
-      </c>
-      <c r="C54" s="1">
-        <v>37</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="1">
-        <v>180</v>
-      </c>
-      <c r="C55" s="1">
-        <v>42</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="1">
-        <v>178</v>
-      </c>
-      <c r="C56" s="1">
-        <v>41</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="1">
-        <v>170</v>
-      </c>
-      <c r="C57" s="1">
-        <v>38</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="1">
-        <v>171</v>
-      </c>
-      <c r="C58" s="1">
-        <v>42</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="1">
-        <v>182</v>
-      </c>
-      <c r="C59" s="1">
-        <v>43</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="1">
-        <v>163</v>
-      </c>
-      <c r="C60" s="1">
-        <v>38</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="1">
-        <v>180</v>
-      </c>
-      <c r="C61" s="1">
-        <v>43</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="1">
-        <v>188</v>
-      </c>
-      <c r="C62" s="1">
-        <v>44</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="1">
-        <v>180</v>
-      </c>
-      <c r="C63" s="1">
-        <v>44</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="1">
-        <v>181</v>
-      </c>
-      <c r="C64" s="1">
-        <v>42</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="1">
-        <v>184</v>
-      </c>
-      <c r="C65" s="1">
-        <v>43</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="1">
-        <v>154</v>
-      </c>
-      <c r="C66" s="1">
-        <v>36</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="1">
-        <v>44</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="1">
-        <v>194</v>
-      </c>
-      <c r="C68" s="1">
-        <v>47</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="1">
-        <v>189</v>
-      </c>
-      <c r="C69" s="1">
-        <v>43</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="1">
-        <v>165</v>
-      </c>
-      <c r="C70" s="1">
-        <v>38</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="1">
-        <v>185</v>
-      </c>
-      <c r="C71" s="1">
-        <v>42</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="1">
-        <v>184</v>
-      </c>
-      <c r="C72" s="1">
-        <v>44</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="1">
-        <v>150</v>
-      </c>
-      <c r="C73" s="1">
-        <v>50</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="1">
-        <v>183</v>
-      </c>
-      <c r="C74" s="1">
-        <v>41</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="1">
-        <v>178</v>
-      </c>
-      <c r="C75" s="1">
-        <v>38</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="1">
-        <v>180</v>
-      </c>
-      <c r="C76" s="1">
-        <v>43</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="1">
-        <v>173</v>
-      </c>
-      <c r="C77" s="1">
-        <v>40</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="1">
-        <v>186</v>
-      </c>
-      <c r="C78" s="1">
-        <v>44</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="1">
-        <v>175</v>
-      </c>
-      <c r="C79" s="1">
-        <v>43</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="1">
-        <v>168</v>
-      </c>
-      <c r="C80" s="1">
-        <v>37</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="1">
-        <v>170</v>
-      </c>
-      <c r="C81" s="1">
-        <v>38</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="1">
-        <v>168</v>
-      </c>
-      <c r="C82" s="1">
-        <v>39</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="1">
-        <v>164</v>
-      </c>
-      <c r="C83" s="1">
-        <v>39</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" s="1">
-        <v>179</v>
-      </c>
-      <c r="C84" s="1">
-        <v>43</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="1">
-        <v>155</v>
-      </c>
-      <c r="C85" s="1">
-        <v>37</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="1">
-        <v>165</v>
-      </c>
-      <c r="C86" s="1">
-        <v>39</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="1">
-        <v>184</v>
-      </c>
-      <c r="C88" s="1">
-        <v>43</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="1">
-        <v>170</v>
-      </c>
-      <c r="C89" s="1">
-        <v>39</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="1">
-        <v>170</v>
-      </c>
-      <c r="C90" s="1">
-        <v>39</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="1">
-        <v>172</v>
-      </c>
-      <c r="C91" s="1">
-        <v>39</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" s="1">
-        <v>190</v>
-      </c>
-      <c r="C92" s="1">
-        <v>46</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" s="1">
-        <v>180</v>
-      </c>
-      <c r="C93" s="1">
-        <v>45</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" s="1">
-        <v>178</v>
-      </c>
-      <c r="C94" s="1">
-        <v>43</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="1">
-        <v>186</v>
-      </c>
-      <c r="C95" s="1">
-        <v>45</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="1">
-        <v>166</v>
-      </c>
-      <c r="C96" s="1">
-        <v>37</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="1">
-        <v>179</v>
-      </c>
-      <c r="C97" s="1">
-        <v>45</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="1">
-        <v>175</v>
-      </c>
-      <c r="C98" s="1">
-        <v>41</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B99" s="1">
-        <v>183</v>
-      </c>
-      <c r="C99" s="1">
-        <v>44</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" s="1">
-        <v>182</v>
-      </c>
-      <c r="C100" s="1">
-        <v>42</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" s="1">
-        <v>180</v>
-      </c>
-      <c r="C101" s="1">
-        <v>43</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" s="1">
-        <v>180</v>
-      </c>
-      <c r="C102" s="1">
-        <v>42</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="1">
-        <v>176</v>
-      </c>
-      <c r="C103" s="1">
-        <v>40</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="1">
-        <v>200</v>
-      </c>
-      <c r="C104" s="1">
-        <v>45</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" s="1">
-        <v>173</v>
-      </c>
-      <c r="C105" s="1">
-        <v>42</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="1">
-        <v>165</v>
-      </c>
-      <c r="C106" s="1">
-        <v>37</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B107" s="1">
-        <v>187</v>
-      </c>
-      <c r="C107" s="1">
-        <v>45</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108" s="1">
-        <v>180</v>
-      </c>
-      <c r="C108" s="1">
-        <v>44</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109" s="1">
-        <v>180</v>
-      </c>
-      <c r="C109" s="1">
-        <v>41</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="1">
-        <v>158</v>
-      </c>
-      <c r="C110" s="1">
-        <v>37</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" s="1">
-        <v>174</v>
-      </c>
-      <c r="C111" s="1">
-        <v>41</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B112" s="1">
-        <v>170</v>
-      </c>
-      <c r="C112" s="1">
-        <v>41</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B113" s="1">
-        <v>184</v>
-      </c>
-      <c r="C113" s="1">
-        <v>44</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" s="1">
-        <v>183</v>
-      </c>
-      <c r="C114" s="1">
-        <v>45</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B115" s="1">
-        <v>176</v>
-      </c>
-      <c r="C115" s="1">
-        <v>41</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="1">
-        <v>160</v>
-      </c>
-      <c r="C116" s="1">
-        <v>36</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" s="1">
-        <v>180</v>
-      </c>
-      <c r="C117" s="1">
-        <v>42</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="1">
-        <v>180</v>
-      </c>
-      <c r="C118" s="1">
-        <v>39</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B119" s="1">
-        <v>187</v>
-      </c>
-      <c r="C119" s="1">
-        <v>41</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B120" s="1">
-        <v>182</v>
-      </c>
-      <c r="C120" s="1">
-        <v>42</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="1">
-        <v>189</v>
-      </c>
-      <c r="C121" s="1">
-        <v>44</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="1">
-        <v>162</v>
-      </c>
-      <c r="C122" s="1">
-        <v>37</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="1">
-        <v>183</v>
-      </c>
-      <c r="C123" s="1">
-        <v>42</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B124" s="1">
-        <v>172</v>
-      </c>
-      <c r="C124" s="1">
-        <v>41</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="1">
-        <v>181</v>
-      </c>
-      <c r="C125" s="1">
-        <v>43</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" s="1">
-        <v>163</v>
-      </c>
-      <c r="C126" s="1">
-        <v>39</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="1">
-        <v>193</v>
-      </c>
-      <c r="C127" s="1">
-        <v>43</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" s="1">
-        <v>192</v>
-      </c>
-      <c r="C128" s="1">
-        <v>45</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B129" s="1">
-        <v>186</v>
-      </c>
-      <c r="C129" s="1">
-        <v>43</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" s="1">
-        <v>170</v>
-      </c>
-      <c r="C130" s="1">
-        <v>42</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" s="1">
-        <v>167</v>
-      </c>
-      <c r="C131" s="1">
-        <v>37</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="1">
-        <v>174</v>
-      </c>
-      <c r="C132" s="1">
-        <v>40</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" s="1">
-        <v>173</v>
-      </c>
-      <c r="C133" s="1">
-        <v>41</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" s="1">
-        <v>184</v>
-      </c>
-      <c r="C134" s="1">
-        <v>44</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B135" s="1">
-        <v>170</v>
-      </c>
-      <c r="C135" s="1">
-        <v>39</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136" s="1">
-        <v>169</v>
-      </c>
-      <c r="C136" s="1">
-        <v>41</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B137" s="1">
-        <v>174</v>
-      </c>
-      <c r="C137" s="1">
-        <v>43</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" s="1">
-        <v>187</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" s="1">
-        <v>171</v>
-      </c>
-      <c r="C139" s="1">
-        <v>40</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B140" s="1">
-        <v>202</v>
-      </c>
-      <c r="C140" s="1">
-        <v>47</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="1">
-        <v>178</v>
-      </c>
-      <c r="C141" s="1">
-        <v>42</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B142" s="1">
-        <v>205</v>
-      </c>
-      <c r="C142" s="1">
-        <v>48</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B143" s="1">
-        <v>161</v>
-      </c>
-      <c r="C143" s="1">
-        <v>37</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B144" s="1">
-        <v>176</v>
-      </c>
-      <c r="C144" s="1">
-        <v>43.5</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="1">
-        <v>170</v>
-      </c>
-      <c r="C145" s="1">
-        <v>39</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B146" s="1">
-        <v>178</v>
-      </c>
-      <c r="C146" s="1">
-        <v>42</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147" s="1">
-        <v>185</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" s="1">
-        <v>169</v>
-      </c>
-      <c r="C148" s="1">
-        <v>40</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149" s="1">
-        <v>169</v>
-      </c>
-      <c r="C149" s="1">
-        <v>41</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" s="1">
-        <v>186</v>
-      </c>
-      <c r="C150" s="1">
-        <v>47</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B151" s="1">
-        <v>171</v>
-      </c>
-      <c r="C151" s="1">
-        <v>41</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B152" s="1">
-        <v>200</v>
-      </c>
-      <c r="C152" s="1">
-        <v>47</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="1">
-        <v>177</v>
-      </c>
-      <c r="C153" s="1">
-        <v>42</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="1">
-        <v>185</v>
-      </c>
-      <c r="C154" s="1">
-        <v>43</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="1">
-        <v>300</v>
-      </c>
-      <c r="C155" s="1">
-        <v>38</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>